--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments_NewRateChng.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments_NewRateChng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="149">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -241,79 +241,226 @@
     <t>$118.70</t>
   </si>
   <si>
-    <t>320018714339</t>
-  </si>
-  <si>
-    <t>320018714340</t>
-  </si>
-  <si>
-    <t>320018714372</t>
-  </si>
-  <si>
-    <t>320018714394</t>
-  </si>
-  <si>
-    <t>320018714431</t>
-  </si>
-  <si>
-    <t>320018714453</t>
-  </si>
-  <si>
-    <t>320018714486</t>
-  </si>
-  <si>
-    <t>320018714501</t>
-  </si>
-  <si>
-    <t>320018714534</t>
-  </si>
-  <si>
-    <t>320018714556</t>
-  </si>
-  <si>
-    <t>320018714590</t>
-  </si>
-  <si>
-    <t>320018714615</t>
-  </si>
-  <si>
-    <t>320018714648</t>
-  </si>
-  <si>
-    <t>320018714660</t>
-  </si>
-  <si>
-    <t>320018714692</t>
-  </si>
-  <si>
-    <t>320018714718</t>
-  </si>
-  <si>
-    <t>320018714751</t>
-  </si>
-  <si>
-    <t>320018714773</t>
-  </si>
-  <si>
-    <t>320018714800</t>
-  </si>
-  <si>
-    <t>320018714821</t>
-  </si>
-  <si>
-    <t>320018714854</t>
-  </si>
-  <si>
-    <t>320018714865</t>
-  </si>
-  <si>
-    <t>320018714876</t>
-  </si>
-  <si>
-    <t>320018714887</t>
-  </si>
-  <si>
-    <t>320018714898</t>
+    <t>BaseRate</t>
+  </si>
+  <si>
+    <t>F.SurCharge 5.75%</t>
+  </si>
+  <si>
+    <t>E.Mileage</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>AfterHDel</t>
+  </si>
+  <si>
+    <t>Del.Mileage</t>
+  </si>
+  <si>
+    <t>$19.25</t>
+  </si>
+  <si>
+    <t>$1.11</t>
+  </si>
+  <si>
+    <t>$50.00</t>
+  </si>
+  <si>
+    <t>$163.30</t>
+  </si>
+  <si>
+    <t>$3.27</t>
+  </si>
+  <si>
+    <t>$235.00</t>
+  </si>
+  <si>
+    <t>$13.51</t>
+  </si>
+  <si>
+    <t>$2.88</t>
+  </si>
+  <si>
+    <t>$1,107.72</t>
+  </si>
+  <si>
+    <t>$63.69</t>
+  </si>
+  <si>
+    <t>$27.75</t>
+  </si>
+  <si>
+    <t>$1.60</t>
+  </si>
+  <si>
+    <t>$32.00</t>
+  </si>
+  <si>
+    <t>$1.84</t>
+  </si>
+  <si>
+    <t>$43.75</t>
+  </si>
+  <si>
+    <t>$2.52</t>
+  </si>
+  <si>
+    <t>$56.75</t>
+  </si>
+  <si>
+    <t>$3.26</t>
+  </si>
+  <si>
+    <t>$76.00</t>
+  </si>
+  <si>
+    <t>$156.00</t>
+  </si>
+  <si>
+    <t>$4.37</t>
+  </si>
+  <si>
+    <t>$23.50</t>
+  </si>
+  <si>
+    <t>$1.35</t>
+  </si>
+  <si>
+    <t>$40.75</t>
+  </si>
+  <si>
+    <t>$2.34</t>
+  </si>
+  <si>
+    <t>$53.50</t>
+  </si>
+  <si>
+    <t>$3.08</t>
+  </si>
+  <si>
+    <t>$15.00</t>
+  </si>
+  <si>
+    <t>$0.86</t>
+  </si>
+  <si>
+    <t>$18.25</t>
+  </si>
+  <si>
+    <t>$1.05</t>
+  </si>
+  <si>
+    <t>$21.50</t>
+  </si>
+  <si>
+    <t>$1.24</t>
+  </si>
+  <si>
+    <t>$42.75</t>
+  </si>
+  <si>
+    <t>$2.46</t>
+  </si>
+  <si>
+    <t>$54.50</t>
+  </si>
+  <si>
+    <t>$3.13</t>
+  </si>
+  <si>
+    <t>$63.25</t>
+  </si>
+  <si>
+    <t>$3.64</t>
+  </si>
+  <si>
+    <t>$112.25</t>
+  </si>
+  <si>
+    <t>$6.45</t>
+  </si>
+  <si>
+    <t>$384.10</t>
+  </si>
+  <si>
+    <t>320018722164</t>
+  </si>
+  <si>
+    <t>320018722370</t>
+  </si>
+  <si>
+    <t>320018722429</t>
+  </si>
+  <si>
+    <t>320018722440</t>
+  </si>
+  <si>
+    <t>320018722484</t>
+  </si>
+  <si>
+    <t>320018722510</t>
+  </si>
+  <si>
+    <t>320018722543</t>
+  </si>
+  <si>
+    <t>320018722565</t>
+  </si>
+  <si>
+    <t>320018722602</t>
+  </si>
+  <si>
+    <t>320018722646</t>
+  </si>
+  <si>
+    <t>320018722680</t>
+  </si>
+  <si>
+    <t>320018722716</t>
+  </si>
+  <si>
+    <t>320018722749</t>
+  </si>
+  <si>
+    <t>320018722782</t>
+  </si>
+  <si>
+    <t>320018722819</t>
+  </si>
+  <si>
+    <t>320018722830</t>
+  </si>
+  <si>
+    <t>320018722874</t>
+  </si>
+  <si>
+    <t>320018722896</t>
+  </si>
+  <si>
+    <t>320018722922</t>
+  </si>
+  <si>
+    <t>320018722944</t>
+  </si>
+  <si>
+    <t>320018722977</t>
+  </si>
+  <si>
+    <t>320018722988</t>
+  </si>
+  <si>
+    <t>320018722999</t>
+  </si>
+  <si>
+    <t>320018723002</t>
+  </si>
+  <si>
+    <t>320018723013</t>
+  </si>
+  <si>
+    <t>Road Toll (Pickup)</t>
   </si>
 </sst>
 </file>
@@ -352,7 +499,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -375,11 +522,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -397,6 +557,14 @@
     </xf>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="Q10" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -770,10 +938,16 @@
     <col min="16" max="16" width="21.140625" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="14" style="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="9.140625" style="2" collapsed="1"/>
-    <col min="19" max="19" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:26">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -828,11 +1002,32 @@
       <c r="R1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="11" t="s">
         <v>48</v>
       </c>
+      <c r="T1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -875,17 +1070,30 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="Q2" t="s">
         <v>59</v>
       </c>
       <c r="R2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S2" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -928,17 +1136,30 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="Q3" t="s">
         <v>60</v>
       </c>
       <c r="R3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -981,17 +1202,30 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Q4" t="s">
         <v>61</v>
       </c>
       <c r="R4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S4" s="12"/>
+      <c r="T4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -1034,17 +1268,30 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="Q5" t="s">
         <v>62</v>
       </c>
       <c r="R5" t="s">
-        <v>58</v>
-      </c>
-      <c r="S5" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S5" s="12"/>
+      <c r="T5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:26">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1087,17 +1334,30 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="Q6" t="s">
         <v>63</v>
       </c>
       <c r="R6" t="s">
-        <v>58</v>
-      </c>
-      <c r="S6" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S6" s="12"/>
+      <c r="T6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:26">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -1140,17 +1400,32 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="Q7" t="s">
         <v>64</v>
       </c>
       <c r="R7" t="s">
-        <v>58</v>
-      </c>
-      <c r="S7" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:26">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1193,17 +1468,30 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="Q8" t="s">
         <v>59</v>
       </c>
       <c r="R8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S8" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S8" s="12"/>
+      <c r="T8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:26">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1246,17 +1534,30 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="Q9" t="s">
         <v>65</v>
       </c>
       <c r="R9" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S9" s="12"/>
+      <c r="T9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:26">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1299,17 +1600,30 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="Q10" t="s">
         <v>60</v>
       </c>
       <c r="R10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S10" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S10" s="12"/>
+      <c r="T10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:26">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1352,17 +1666,30 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="Q11" t="s">
         <v>66</v>
       </c>
       <c r="R11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S11" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S11" s="12"/>
+      <c r="T11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:26">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1405,17 +1732,30 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="Q12" t="s">
         <v>67</v>
       </c>
       <c r="R12" t="s">
-        <v>58</v>
-      </c>
-      <c r="S12" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S12" s="12"/>
+      <c r="T12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:26">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1458,17 +1798,30 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="Q13" t="s">
         <v>68</v>
       </c>
       <c r="R13" t="s">
-        <v>58</v>
-      </c>
-      <c r="S13" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S13" s="12"/>
+      <c r="T13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:26">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1511,17 +1864,30 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="Q14" t="s">
         <v>69</v>
       </c>
       <c r="R14" t="s">
-        <v>58</v>
-      </c>
-      <c r="S14" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S14" s="12"/>
+      <c r="T14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:26">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1564,17 +1930,30 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="Q15" t="s">
         <v>70</v>
       </c>
       <c r="R15" t="s">
-        <v>58</v>
-      </c>
-      <c r="S15" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S15" s="12"/>
+      <c r="T15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:26">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1617,17 +1996,30 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="Q16" t="s">
         <v>61</v>
       </c>
       <c r="R16" t="s">
-        <v>58</v>
-      </c>
-      <c r="S16" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S16" s="12"/>
+      <c r="T16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:26">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -1670,17 +2062,30 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="Q17" t="s">
         <v>71</v>
       </c>
       <c r="R17" t="s">
-        <v>58</v>
-      </c>
-      <c r="S17" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S17" s="12"/>
+      <c r="T17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:26">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1723,17 +2128,30 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="Q18" t="s">
         <v>62</v>
       </c>
       <c r="R18" t="s">
-        <v>58</v>
-      </c>
-      <c r="S18" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S18" s="12"/>
+      <c r="T18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:26">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -1776,17 +2194,30 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="Q19" t="s">
         <v>72</v>
       </c>
       <c r="R19" t="s">
-        <v>58</v>
-      </c>
-      <c r="S19" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S19" s="12"/>
+      <c r="T19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:26">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -1829,17 +2260,30 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="Q20" t="s">
         <v>73</v>
       </c>
       <c r="R20" t="s">
-        <v>58</v>
-      </c>
-      <c r="S20" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S20" s="12"/>
+      <c r="T20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:26">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1882,17 +2326,30 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="Q21" t="s">
         <v>74</v>
       </c>
       <c r="R21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S21" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="S21" s="12"/>
+      <c r="T21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:26">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1935,7 +2392,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="Q22" t="s">
         <v>54</v>
@@ -1943,9 +2400,24 @@
       <c r="R22" t="s">
         <v>52</v>
       </c>
-      <c r="S22" s="3"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:26">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -1988,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="Q23" t="s">
         <v>55</v>
@@ -1996,9 +2468,24 @@
       <c r="R23" t="s">
         <v>52</v>
       </c>
-      <c r="S23" s="3"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:26">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="Q24" t="s">
         <v>57</v>
@@ -2049,9 +2536,22 @@
       <c r="R24" t="s">
         <v>58</v>
       </c>
-      <c r="S24" s="3"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:26">
       <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="Q25" t="s">
         <v>53</v>
@@ -2102,9 +2602,22 @@
       <c r="R25" t="s">
         <v>52</v>
       </c>
-      <c r="S25" s="3"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:26">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="Q26" t="s">
         <v>56</v>
@@ -2155,7 +2668,20 @@
       <c r="R26" t="s">
         <v>52</v>
       </c>
-      <c r="S26" s="3"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="R2:R7">

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments_NewRateChng.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments_NewRateChng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="150">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -385,82 +385,85 @@
     <t>$384.10</t>
   </si>
   <si>
-    <t>320018722164</t>
-  </si>
-  <si>
-    <t>320018722370</t>
-  </si>
-  <si>
-    <t>320018722429</t>
-  </si>
-  <si>
-    <t>320018722440</t>
-  </si>
-  <si>
-    <t>320018722484</t>
-  </si>
-  <si>
-    <t>320018722510</t>
-  </si>
-  <si>
-    <t>320018722543</t>
-  </si>
-  <si>
-    <t>320018722565</t>
-  </si>
-  <si>
-    <t>320018722602</t>
-  </si>
-  <si>
-    <t>320018722646</t>
-  </si>
-  <si>
-    <t>320018722680</t>
-  </si>
-  <si>
-    <t>320018722716</t>
-  </si>
-  <si>
-    <t>320018722749</t>
-  </si>
-  <si>
-    <t>320018722782</t>
-  </si>
-  <si>
-    <t>320018722819</t>
-  </si>
-  <si>
-    <t>320018722830</t>
-  </si>
-  <si>
-    <t>320018722874</t>
-  </si>
-  <si>
-    <t>320018722896</t>
-  </si>
-  <si>
-    <t>320018722922</t>
-  </si>
-  <si>
-    <t>320018722944</t>
-  </si>
-  <si>
-    <t>320018722977</t>
-  </si>
-  <si>
-    <t>320018722988</t>
-  </si>
-  <si>
-    <t>320018722999</t>
-  </si>
-  <si>
-    <t>320018723002</t>
-  </si>
-  <si>
-    <t>320018723013</t>
-  </si>
-  <si>
     <t>Road Toll (Pickup)</t>
+  </si>
+  <si>
+    <t>320018728611</t>
+  </si>
+  <si>
+    <t>320018728622</t>
+  </si>
+  <si>
+    <t>320018728655</t>
+  </si>
+  <si>
+    <t>320018728677</t>
+  </si>
+  <si>
+    <t>320018728714</t>
+  </si>
+  <si>
+    <t>320018728736</t>
+  </si>
+  <si>
+    <t>320018728770</t>
+  </si>
+  <si>
+    <t>320018728791</t>
+  </si>
+  <si>
+    <t>320018728840</t>
+  </si>
+  <si>
+    <t>320018728861</t>
+  </si>
+  <si>
+    <t>320018728909</t>
+  </si>
+  <si>
+    <t>320018728931</t>
+  </si>
+  <si>
+    <t>320018728975</t>
+  </si>
+  <si>
+    <t>320018729011</t>
+  </si>
+  <si>
+    <t>320018729044</t>
+  </si>
+  <si>
+    <t>320018729066</t>
+  </si>
+  <si>
+    <t>320018729103</t>
+  </si>
+  <si>
+    <t>320018729136</t>
+  </si>
+  <si>
+    <t>320018729170</t>
+  </si>
+  <si>
+    <t>320018729191</t>
+  </si>
+  <si>
+    <t>$6.80</t>
+  </si>
+  <si>
+    <t>320018729228</t>
+  </si>
+  <si>
+    <t>320018729239</t>
+  </si>
+  <si>
+    <t>320018729240</t>
+  </si>
+  <si>
+    <t>320018729250</t>
+  </si>
+  <si>
+    <t>320018729272</t>
   </si>
 </sst>
 </file>
@@ -919,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q10" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -944,7 +947,7 @@
     <col min="22" max="22" width="10.5703125" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="13.140625" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="15" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.85546875" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -1024,7 +1027,7 @@
         <v>80</v>
       </c>
       <c r="Z1" s="13" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -1070,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q2" t="s">
         <v>59</v>
@@ -1079,14 +1082,14 @@
         <v>52</v>
       </c>
       <c r="S2" s="12"/>
-      <c r="T2" s="3" t="s">
+      <c r="T2" t="s">
         <v>81</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" t="s">
         <v>82</v>
       </c>
       <c r="V2" s="3"/>
-      <c r="W2" s="3" t="s">
+      <c r="W2" t="s">
         <v>59</v>
       </c>
       <c r="X2" s="3"/>
@@ -1136,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q3" t="s">
         <v>60</v>
@@ -1145,14 +1148,14 @@
         <v>52</v>
       </c>
       <c r="S3" s="12"/>
-      <c r="T3" s="3" t="s">
+      <c r="T3" t="s">
         <v>91</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" t="s">
         <v>92</v>
       </c>
       <c r="V3" s="3"/>
-      <c r="W3" s="3" t="s">
+      <c r="W3" t="s">
         <v>60</v>
       </c>
       <c r="X3" s="3"/>
@@ -1202,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q4" t="s">
         <v>61</v>
@@ -1211,14 +1214,14 @@
         <v>52</v>
       </c>
       <c r="S4" s="12"/>
-      <c r="T4" s="3" t="s">
+      <c r="T4" t="s">
         <v>93</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>94</v>
       </c>
       <c r="V4" s="3"/>
-      <c r="W4" s="3" t="s">
+      <c r="W4" t="s">
         <v>61</v>
       </c>
       <c r="X4" s="3"/>
@@ -1268,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q5" t="s">
         <v>62</v>
@@ -1277,14 +1280,14 @@
         <v>52</v>
       </c>
       <c r="S5" s="12"/>
-      <c r="T5" s="3" t="s">
+      <c r="T5" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" t="s">
         <v>96</v>
       </c>
       <c r="V5" s="3"/>
-      <c r="W5" s="3" t="s">
+      <c r="W5" t="s">
         <v>62</v>
       </c>
       <c r="X5" s="3"/>
@@ -1334,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q6" t="s">
         <v>63</v>
@@ -1343,14 +1346,14 @@
         <v>52</v>
       </c>
       <c r="S6" s="12"/>
-      <c r="T6" s="3" t="s">
+      <c r="T6" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" t="s">
         <v>98</v>
       </c>
       <c r="V6" s="3"/>
-      <c r="W6" s="3" t="s">
+      <c r="W6" t="s">
         <v>63</v>
       </c>
       <c r="X6" s="3"/>
@@ -1400,7 +1403,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q7" t="s">
         <v>64</v>
@@ -1409,16 +1412,16 @@
         <v>52</v>
       </c>
       <c r="S7" s="12"/>
-      <c r="T7" s="3" t="s">
+      <c r="T7" t="s">
         <v>99</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="U7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="V7" t="s">
         <v>100</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="W7" t="s">
         <v>64</v>
       </c>
       <c r="X7" s="3"/>
@@ -1468,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q8" t="s">
         <v>59</v>
@@ -1477,14 +1480,14 @@
         <v>52</v>
       </c>
       <c r="S8" s="12"/>
-      <c r="T8" s="3" t="s">
+      <c r="T8" t="s">
         <v>81</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U8" t="s">
         <v>82</v>
       </c>
       <c r="V8" s="3"/>
-      <c r="W8" s="3" t="s">
+      <c r="W8" t="s">
         <v>59</v>
       </c>
       <c r="X8" s="3"/>
@@ -1534,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q9" t="s">
         <v>65</v>
@@ -1543,14 +1546,14 @@
         <v>52</v>
       </c>
       <c r="S9" s="12"/>
-      <c r="T9" s="3" t="s">
+      <c r="T9" t="s">
         <v>102</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U9" t="s">
         <v>103</v>
       </c>
       <c r="V9" s="3"/>
-      <c r="W9" s="3" t="s">
+      <c r="W9" t="s">
         <v>65</v>
       </c>
       <c r="X9" s="3"/>
@@ -1600,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10" t="s">
         <v>60</v>
@@ -1609,14 +1612,14 @@
         <v>52</v>
       </c>
       <c r="S10" s="12"/>
-      <c r="T10" s="3" t="s">
+      <c r="T10" t="s">
         <v>91</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U10" t="s">
         <v>92</v>
       </c>
       <c r="V10" s="3"/>
-      <c r="W10" s="3" t="s">
+      <c r="W10" t="s">
         <v>60</v>
       </c>
       <c r="X10" s="3"/>
@@ -1666,7 +1669,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q11" t="s">
         <v>66</v>
@@ -1675,14 +1678,14 @@
         <v>52</v>
       </c>
       <c r="S11" s="12"/>
-      <c r="T11" s="3" t="s">
+      <c r="T11" t="s">
         <v>104</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="U11" t="s">
         <v>105</v>
       </c>
       <c r="V11" s="3"/>
-      <c r="W11" s="3" t="s">
+      <c r="W11" t="s">
         <v>66</v>
       </c>
       <c r="X11" s="3"/>
@@ -1732,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q12" t="s">
         <v>67</v>
@@ -1741,14 +1744,14 @@
         <v>52</v>
       </c>
       <c r="S12" s="12"/>
-      <c r="T12" s="3" t="s">
+      <c r="T12" t="s">
         <v>106</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="U12" t="s">
         <v>107</v>
       </c>
       <c r="V12" s="3"/>
-      <c r="W12" s="3" t="s">
+      <c r="W12" t="s">
         <v>67</v>
       </c>
       <c r="X12" s="3"/>
@@ -1798,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q13" t="s">
         <v>68</v>
@@ -1807,14 +1810,14 @@
         <v>52</v>
       </c>
       <c r="S13" s="12"/>
-      <c r="T13" s="3" t="s">
+      <c r="T13" t="s">
         <v>108</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="U13" t="s">
         <v>109</v>
       </c>
       <c r="V13" s="3"/>
-      <c r="W13" s="3" t="s">
+      <c r="W13" t="s">
         <v>68</v>
       </c>
       <c r="X13" s="3"/>
@@ -1864,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q14" t="s">
         <v>69</v>
@@ -1873,14 +1876,14 @@
         <v>52</v>
       </c>
       <c r="S14" s="12"/>
-      <c r="T14" s="3" t="s">
+      <c r="T14" t="s">
         <v>110</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" t="s">
         <v>111</v>
       </c>
       <c r="V14" s="3"/>
-      <c r="W14" s="3" t="s">
+      <c r="W14" t="s">
         <v>69</v>
       </c>
       <c r="X14" s="3"/>
@@ -1930,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q15" t="s">
         <v>70</v>
@@ -1939,14 +1942,14 @@
         <v>52</v>
       </c>
       <c r="S15" s="12"/>
-      <c r="T15" s="3" t="s">
+      <c r="T15" t="s">
         <v>112</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" t="s">
         <v>113</v>
       </c>
       <c r="V15" s="3"/>
-      <c r="W15" s="3" t="s">
+      <c r="W15" t="s">
         <v>70</v>
       </c>
       <c r="X15" s="3"/>
@@ -1996,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q16" t="s">
         <v>61</v>
@@ -2005,14 +2008,14 @@
         <v>52</v>
       </c>
       <c r="S16" s="12"/>
-      <c r="T16" s="3" t="s">
+      <c r="T16" t="s">
         <v>93</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="U16" t="s">
         <v>94</v>
       </c>
       <c r="V16" s="3"/>
-      <c r="W16" s="3" t="s">
+      <c r="W16" t="s">
         <v>61</v>
       </c>
       <c r="X16" s="3"/>
@@ -2062,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q17" t="s">
         <v>71</v>
@@ -2071,14 +2074,14 @@
         <v>52</v>
       </c>
       <c r="S17" s="12"/>
-      <c r="T17" s="3" t="s">
+      <c r="T17" t="s">
         <v>114</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="U17" t="s">
         <v>115</v>
       </c>
       <c r="V17" s="3"/>
-      <c r="W17" s="3" t="s">
+      <c r="W17" t="s">
         <v>71</v>
       </c>
       <c r="X17" s="3"/>
@@ -2128,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q18" t="s">
         <v>62</v>
@@ -2137,14 +2140,14 @@
         <v>52</v>
       </c>
       <c r="S18" s="12"/>
-      <c r="T18" s="3" t="s">
+      <c r="T18" t="s">
         <v>95</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="U18" t="s">
         <v>96</v>
       </c>
       <c r="V18" s="3"/>
-      <c r="W18" s="3" t="s">
+      <c r="W18" t="s">
         <v>62</v>
       </c>
       <c r="X18" s="3"/>
@@ -2194,7 +2197,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" t="s">
         <v>72</v>
@@ -2203,14 +2206,14 @@
         <v>52</v>
       </c>
       <c r="S19" s="12"/>
-      <c r="T19" s="3" t="s">
+      <c r="T19" t="s">
         <v>116</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="U19" t="s">
         <v>117</v>
       </c>
       <c r="V19" s="3"/>
-      <c r="W19" s="3" t="s">
+      <c r="W19" t="s">
         <v>72</v>
       </c>
       <c r="X19" s="3"/>
@@ -2260,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" t="s">
         <v>73</v>
@@ -2269,14 +2272,14 @@
         <v>52</v>
       </c>
       <c r="S20" s="12"/>
-      <c r="T20" s="3" t="s">
+      <c r="T20" t="s">
         <v>118</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U20" t="s">
         <v>119</v>
       </c>
       <c r="V20" s="3"/>
-      <c r="W20" s="3" t="s">
+      <c r="W20" t="s">
         <v>73</v>
       </c>
       <c r="X20" s="3"/>
@@ -2326,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q21" t="s">
         <v>74</v>
@@ -2335,14 +2338,14 @@
         <v>52</v>
       </c>
       <c r="S21" s="12"/>
-      <c r="T21" s="3" t="s">
+      <c r="T21" t="s">
         <v>120</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="U21" t="s">
         <v>121</v>
       </c>
       <c r="V21" s="3"/>
-      <c r="W21" s="3" t="s">
+      <c r="W21" t="s">
         <v>74</v>
       </c>
       <c r="X21" s="3"/>
@@ -2392,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q22" t="s">
         <v>54</v>
@@ -2401,21 +2404,23 @@
         <v>52</v>
       </c>
       <c r="S22" s="12"/>
-      <c r="T22" s="3" t="s">
+      <c r="T22" t="s">
         <v>83</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" t="s">
         <v>85</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="V22" t="s">
         <v>84</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="W22" t="s">
         <v>54</v>
       </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
+      <c r="Z22" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="3" t="s">
@@ -2460,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q23" t="s">
         <v>55</v>
@@ -2469,16 +2474,16 @@
         <v>52</v>
       </c>
       <c r="S23" s="12"/>
-      <c r="T23" s="3" t="s">
+      <c r="T23" t="s">
         <v>83</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="U23" t="s">
         <v>88</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="V23" t="s">
         <v>122</v>
       </c>
-      <c r="W23" s="3" t="s">
+      <c r="W23" t="s">
         <v>55</v>
       </c>
       <c r="X23" s="3"/>
@@ -2518,8 +2523,8 @@
       <c r="L24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="9">
-        <v>278.12</v>
+      <c r="M24" t="s">
+        <v>57</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>43</v>
@@ -2528,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q24" t="s">
         <v>57</v>
@@ -2537,14 +2542,14 @@
         <v>58</v>
       </c>
       <c r="S24" s="12"/>
-      <c r="T24" s="3" t="s">
+      <c r="T24" t="s">
         <v>86</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="U24" t="s">
         <v>87</v>
       </c>
       <c r="V24" s="3"/>
-      <c r="W24" s="3" t="s">
+      <c r="W24" t="s">
         <v>57</v>
       </c>
       <c r="X24" s="3"/>
@@ -2594,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q25" t="s">
         <v>53</v>
@@ -2603,14 +2608,14 @@
         <v>52</v>
       </c>
       <c r="S25" s="12"/>
-      <c r="T25" s="3" t="s">
+      <c r="T25" t="s">
         <v>83</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="U25" t="s">
         <v>88</v>
       </c>
       <c r="V25" s="3"/>
-      <c r="W25" s="3" t="s">
+      <c r="W25" t="s">
         <v>53</v>
       </c>
       <c r="X25" s="3"/>
@@ -2660,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q26" t="s">
         <v>56</v>
@@ -2669,14 +2674,14 @@
         <v>52</v>
       </c>
       <c r="S26" s="12"/>
-      <c r="T26" s="3" t="s">
+      <c r="T26" t="s">
         <v>89</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="U26" t="s">
         <v>90</v>
       </c>
       <c r="V26" s="3"/>
-      <c r="W26" s="3" t="s">
+      <c r="W26" t="s">
         <v>56</v>
       </c>
       <c r="X26" s="3"/>

--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments_NewRateChng.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments_NewRateChng.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="9660" tabRatio="614"/>
+    <workbookView tabRatio="614" windowHeight="9660" windowWidth="19815" xWindow="390" yWindow="510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="197">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -464,6 +464,147 @@
   </si>
   <si>
     <t>320018729272</t>
+  </si>
+  <si>
+    <t>320018764583</t>
+  </si>
+  <si>
+    <t>320018764610</t>
+  </si>
+  <si>
+    <t>320018764723</t>
+  </si>
+  <si>
+    <t>320018764756</t>
+  </si>
+  <si>
+    <t>320018764790</t>
+  </si>
+  <si>
+    <t>320018764837</t>
+  </si>
+  <si>
+    <t>320018764859</t>
+  </si>
+  <si>
+    <t>320018764881</t>
+  </si>
+  <si>
+    <t>320018764940</t>
+  </si>
+  <si>
+    <t>320018764973</t>
+  </si>
+  <si>
+    <t>320018764995</t>
+  </si>
+  <si>
+    <t>320018765042</t>
+  </si>
+  <si>
+    <t>320018765075</t>
+  </si>
+  <si>
+    <t>320018765112</t>
+  </si>
+  <si>
+    <t>320018765134</t>
+  </si>
+  <si>
+    <t>320018765167</t>
+  </si>
+  <si>
+    <t>320018765178</t>
+  </si>
+  <si>
+    <t>320018765189</t>
+  </si>
+  <si>
+    <t>320018765190</t>
+  </si>
+  <si>
+    <t>320018765204</t>
+  </si>
+  <si>
+    <t>320018767744</t>
+  </si>
+  <si>
+    <t>320018767814</t>
+  </si>
+  <si>
+    <t>320018767847</t>
+  </si>
+  <si>
+    <t>320018767869</t>
+  </si>
+  <si>
+    <t>320018767906</t>
+  </si>
+  <si>
+    <t>320018767928</t>
+  </si>
+  <si>
+    <t>320018768155</t>
+  </si>
+  <si>
+    <t>320018768177</t>
+  </si>
+  <si>
+    <t>320018768203</t>
+  </si>
+  <si>
+    <t>320018768225</t>
+  </si>
+  <si>
+    <t>320018768269</t>
+  </si>
+  <si>
+    <t>320018768280</t>
+  </si>
+  <si>
+    <t>320018768317</t>
+  </si>
+  <si>
+    <t>320018768339</t>
+  </si>
+  <si>
+    <t>320018768361</t>
+  </si>
+  <si>
+    <t>320018768383</t>
+  </si>
+  <si>
+    <t>320018768420</t>
+  </si>
+  <si>
+    <t>320018768442</t>
+  </si>
+  <si>
+    <t>$5.94</t>
+  </si>
+  <si>
+    <t>$109.19</t>
+  </si>
+  <si>
+    <t>320018768475</t>
+  </si>
+  <si>
+    <t>320018768497</t>
+  </si>
+  <si>
+    <t>320018768523</t>
+  </si>
+  <si>
+    <t>320018768534</t>
+  </si>
+  <si>
+    <t>320018768545</t>
+  </si>
+  <si>
+    <t>320018768556</t>
+  </si>
+  <si>
+    <t>320018768567</t>
   </si>
 </sst>
 </file>
@@ -540,38 +681,38 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="8" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="8" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -624,7 +765,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -638,10 +779,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -799,7 +940,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -808,13 +949,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -824,7 +965,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -833,7 +974,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -842,7 +983,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -852,12 +993,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -888,7 +1029,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -907,7 +1048,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -919,8 +1060,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
       <selection activeCell="T22" sqref="T22"/>
@@ -928,26 +1069,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.140625" style="2" collapsed="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="18" max="18" style="2" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="17.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -1073,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="Q2" t="s">
         <v>59</v>
@@ -1139,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="Q3" t="s">
         <v>60</v>
@@ -1205,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="Q4" t="s">
         <v>61</v>
@@ -1271,7 +1412,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="Q5" t="s">
         <v>62</v>
@@ -1337,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="Q6" t="s">
         <v>63</v>
@@ -1403,7 +1544,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="Q7" t="s">
         <v>64</v>
@@ -1471,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="Q8" t="s">
         <v>59</v>
@@ -1537,7 +1678,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="Q9" t="s">
         <v>65</v>
@@ -1603,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="Q10" t="s">
         <v>60</v>
@@ -1669,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="Q11" t="s">
         <v>66</v>
@@ -1735,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="Q12" t="s">
         <v>67</v>
@@ -1801,7 +1942,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="Q13" t="s">
         <v>68</v>
@@ -1867,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="Q14" t="s">
         <v>69</v>
@@ -1933,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="Q15" t="s">
         <v>70</v>
@@ -1999,7 +2140,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="Q16" t="s">
         <v>61</v>
@@ -2065,7 +2206,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="Q17" t="s">
         <v>71</v>
@@ -2131,7 +2272,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="Q18" t="s">
         <v>62</v>
@@ -2197,7 +2338,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="Q19" t="s">
         <v>72</v>
@@ -2263,24 +2404,24 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="Q20" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="R20" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="S20" s="12"/>
       <c r="T20" t="s">
         <v>118</v>
       </c>
       <c r="U20" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
@@ -2329,7 +2470,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="Q21" t="s">
         <v>74</v>
@@ -2395,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="Q22" t="s">
         <v>54</v>
@@ -2465,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="Q23" t="s">
         <v>55</v>
@@ -2533,13 +2674,13 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="Q24" t="s">
         <v>57</v>
       </c>
       <c r="R24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="S24" s="12"/>
       <c r="T24" t="s">
@@ -2599,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="Q25" t="s">
         <v>53</v>
@@ -2665,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="Q26" t="s">
         <v>56</v>
@@ -2690,35 +2831,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R2:R7">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule dxfId="6" operator="equal" priority="7" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R24 R27:R1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule dxfId="5" operator="equal" priority="5" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule dxfId="4" operator="equal" priority="6" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule dxfId="3" operator="equal" priority="3" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="4" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments_NewRateChng.xlsx
+++ b/FedExApplicationMaven/src/main/resources/TestFiles/FedExShipments_NewRateChng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="254">
   <si>
     <t>Nothing Bundt Cakes</t>
   </si>
@@ -605,6 +605,177 @@
   </si>
   <si>
     <t>320018768567</t>
+  </si>
+  <si>
+    <t>320018771688</t>
+  </si>
+  <si>
+    <t>320018771699</t>
+  </si>
+  <si>
+    <t>320018771725</t>
+  </si>
+  <si>
+    <t>320018771747</t>
+  </si>
+  <si>
+    <t>320018771780</t>
+  </si>
+  <si>
+    <t>320018771806</t>
+  </si>
+  <si>
+    <t>320018771839</t>
+  </si>
+  <si>
+    <t>320018771850</t>
+  </si>
+  <si>
+    <t>320018771883</t>
+  </si>
+  <si>
+    <t>320018771909</t>
+  </si>
+  <si>
+    <t>320018771942</t>
+  </si>
+  <si>
+    <t>320018771964</t>
+  </si>
+  <si>
+    <t>320018771997</t>
+  </si>
+  <si>
+    <t>320018772011</t>
+  </si>
+  <si>
+    <t>320018772044</t>
+  </si>
+  <si>
+    <t>320018772066</t>
+  </si>
+  <si>
+    <t>320018772103</t>
+  </si>
+  <si>
+    <t>320018772125</t>
+  </si>
+  <si>
+    <t>320018772158</t>
+  </si>
+  <si>
+    <t>320018772170</t>
+  </si>
+  <si>
+    <t>320018772206</t>
+  </si>
+  <si>
+    <t>320018772217</t>
+  </si>
+  <si>
+    <t>320018772228</t>
+  </si>
+  <si>
+    <t>320018772239</t>
+  </si>
+  <si>
+    <t>320018772240</t>
+  </si>
+  <si>
+    <t>320018781840</t>
+  </si>
+  <si>
+    <t>320018781873</t>
+  </si>
+  <si>
+    <t>320018781895</t>
+  </si>
+  <si>
+    <t>320018781932</t>
+  </si>
+  <si>
+    <t>320018781954</t>
+  </si>
+  <si>
+    <t>320018781987</t>
+  </si>
+  <si>
+    <t>320018782192</t>
+  </si>
+  <si>
+    <t>320018782207</t>
+  </si>
+  <si>
+    <t>320018782230</t>
+  </si>
+  <si>
+    <t>320018782251</t>
+  </si>
+  <si>
+    <t>320018782295</t>
+  </si>
+  <si>
+    <t>320018782310</t>
+  </si>
+  <si>
+    <t>320018782343</t>
+  </si>
+  <si>
+    <t>320018782376</t>
+  </si>
+  <si>
+    <t>320018782402</t>
+  </si>
+  <si>
+    <t>320018782424</t>
+  </si>
+  <si>
+    <t>320018782479</t>
+  </si>
+  <si>
+    <t>320018782505</t>
+  </si>
+  <si>
+    <t>320018782538</t>
+  </si>
+  <si>
+    <t>320018782571</t>
+  </si>
+  <si>
+    <t>320018782608</t>
+  </si>
+  <si>
+    <t>320018782620</t>
+  </si>
+  <si>
+    <t>320018782663</t>
+  </si>
+  <si>
+    <t>320018782685</t>
+  </si>
+  <si>
+    <t>320018782711</t>
+  </si>
+  <si>
+    <t>320018782733</t>
+  </si>
+  <si>
+    <t>320018782766</t>
+  </si>
+  <si>
+    <t>320018782777</t>
+  </si>
+  <si>
+    <t>320018782788</t>
+  </si>
+  <si>
+    <t>320018782799</t>
+  </si>
+  <si>
+    <t>320018782803</t>
+  </si>
+  <si>
+    <t>320018785088</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="Q2" t="s">
         <v>59</v>
@@ -1280,7 +1451,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="Q3" t="s">
         <v>60</v>
@@ -1346,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="Q4" t="s">
         <v>61</v>
@@ -1412,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="Q5" t="s">
         <v>62</v>
@@ -1478,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="Q6" t="s">
         <v>63</v>
@@ -1544,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="Q7" t="s">
         <v>64</v>
@@ -1612,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="Q8" t="s">
         <v>59</v>
@@ -1678,7 +1849,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="Q9" t="s">
         <v>65</v>
@@ -1744,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="Q10" t="s">
         <v>60</v>
@@ -1810,7 +1981,7 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="Q11" t="s">
         <v>66</v>
@@ -1876,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="Q12" t="s">
         <v>67</v>
@@ -1942,7 +2113,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="Q13" t="s">
         <v>68</v>
@@ -2008,7 +2179,7 @@
         <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="Q14" t="s">
         <v>69</v>
@@ -2074,7 +2245,7 @@
         <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="Q15" t="s">
         <v>70</v>
@@ -2140,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="Q16" t="s">
         <v>61</v>
@@ -2206,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="P17" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="Q17" t="s">
         <v>71</v>
@@ -2272,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="Q18" t="s">
         <v>62</v>
@@ -2338,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="Q19" t="s">
         <v>72</v>
@@ -2404,24 +2575,24 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="Q20" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="R20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="S20" s="12"/>
       <c r="T20" t="s">
         <v>118</v>
       </c>
       <c r="U20" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
@@ -2470,7 +2641,7 @@
         <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="Q21" t="s">
         <v>74</v>
@@ -2536,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="Q22" t="s">
         <v>54</v>
@@ -2606,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="Q23" t="s">
         <v>55</v>
@@ -2674,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="Q24" t="s">
         <v>57</v>
@@ -2740,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="Q25" t="s">
         <v>53</v>
@@ -2806,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="Q26" t="s">
         <v>56</v>
